--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/3.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/3.xlsx
@@ -479,13 +479,13 @@
         <v>0.1059194879176096</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.013697981456547</v>
+        <v>-2.009691412530989</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2994176462209887</v>
+        <v>0.2950914788608147</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04261054527621892</v>
+        <v>0.04196585912089622</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.1251407811976147</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.087956433771299</v>
+        <v>-2.089252515209389</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1332349991101524</v>
+        <v>0.1297797984763746</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.003575697970527766</v>
+        <v>-0.005629300889138477</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.1468282478463749</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.294568282861058</v>
+        <v>-2.295938164701034</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08822529284885268</v>
+        <v>0.08668524314006383</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.02240699886512405</v>
+        <v>-0.02483692284128832</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.1615330150778718</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.333925244290256</v>
+        <v>-2.332346769578832</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1260214672662531</v>
+        <v>0.1247833282924545</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.03040793830270508</v>
+        <v>-0.03113618359074226</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.1641585466825553</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.335970918240069</v>
+        <v>-2.330532255565507</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0947490044073499</v>
+        <v>0.09252584354060324</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.02574997409438016</v>
+        <v>-0.02589940466018343</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.1525257629540528</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.049333816836906</v>
+        <v>-2.036882286221094</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1689501241784884</v>
+        <v>0.170706085806846</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.06816995716220758</v>
+        <v>-0.06849992424832829</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.1297070152901397</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.833996442545589</v>
+        <v>-1.826621281722352</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1819847389612711</v>
+        <v>0.1820792766661671</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01421515425572089</v>
+        <v>-0.01538376227237017</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.1038726533871167</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.366806352966728</v>
+        <v>-1.363737842042009</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2460367786713219</v>
+        <v>0.2442045769583708</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04813223316900364</v>
+        <v>-0.04896660465479499</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.0855223195873939</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7600322569900136</v>
+        <v>-0.7574681504649647</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2723646146038286</v>
+        <v>0.2732050852963874</v>
       </c>
       <c r="G10" t="n">
-        <v>0.005551764957006921</v>
+        <v>0.007022893629323237</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.08429714113061783</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.3256796867265911</v>
+        <v>-0.3331725622404411</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1389865510918865</v>
+        <v>0.1412292294202891</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02495578136706963</v>
+        <v>0.02676907553904161</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1098118367516774</v>
       </c>
       <c r="E12" t="n">
-        <v>0.362546266026443</v>
+        <v>0.3545593547644271</v>
       </c>
       <c r="F12" t="n">
-        <v>0.009795593025819909</v>
+        <v>0.01489757948681741</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1469149099689346</v>
+        <v>0.1504286629876801</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.167496253401497</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9208578947907873</v>
+        <v>0.9034782051068513</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.07793539711762075</v>
+        <v>-0.06594435661275393</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2146600193766948</v>
+        <v>0.2169392929457023</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2572556071944218</v>
       </c>
       <c r="E14" t="n">
-        <v>1.444017355271434</v>
+        <v>1.421193513626845</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3915212337022208</v>
+        <v>-0.3795972844717962</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3798789918182693</v>
+        <v>0.3821485066564488</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.3776253762293589</v>
       </c>
       <c r="E15" t="n">
-        <v>2.010319554821855</v>
+        <v>1.987511571114861</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7631459020448125</v>
+        <v>-0.7535683176578377</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4244824909088548</v>
+        <v>0.4227991098410301</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.5231141512439075</v>
       </c>
       <c r="E16" t="n">
-        <v>2.697393367416511</v>
+        <v>2.677461159700385</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.007972941056897</v>
+        <v>-0.9897039870262623</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5342901698678681</v>
+        <v>0.5327934245271284</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.6847349998037077</v>
       </c>
       <c r="E17" t="n">
-        <v>3.164366935155127</v>
+        <v>3.140203097783723</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.346958314303993</v>
+        <v>-1.326028886281383</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6056734561124306</v>
+        <v>0.5975175968229556</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.8544471511597539</v>
       </c>
       <c r="E18" t="n">
-        <v>3.702662187149953</v>
+        <v>3.67535847813465</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.589060837653044</v>
+        <v>-1.566788974220912</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7278094617105524</v>
+        <v>0.7174914336220055</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.023386631065257</v>
       </c>
       <c r="E19" t="n">
-        <v>3.996948913680892</v>
+        <v>3.959582733340599</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.87167063282764</v>
+        <v>-1.84836312408639</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8935279591863835</v>
+        <v>0.8827061366188427</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.186774210337334</v>
       </c>
       <c r="E20" t="n">
-        <v>4.292579905383382</v>
+        <v>4.253626711442191</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.094390486990314</v>
+        <v>-2.066863547007321</v>
       </c>
       <c r="G20" t="n">
-        <v>1.165889257229582</v>
+        <v>1.15288269879793</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.344202023055883</v>
       </c>
       <c r="E21" t="n">
-        <v>4.621624791440839</v>
+        <v>4.581238283909289</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.421804445158147</v>
+        <v>-2.39388044681459</v>
       </c>
       <c r="G21" t="n">
-        <v>1.29711491067328</v>
+        <v>1.285004935636448</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.492502514629072</v>
       </c>
       <c r="E22" t="n">
-        <v>4.925671468641099</v>
+        <v>4.880277512353448</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.646175354592778</v>
+        <v>-2.621049062393465</v>
       </c>
       <c r="G22" t="n">
-        <v>1.339651998511044</v>
+        <v>1.322609594961349</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.625954762235058</v>
       </c>
       <c r="E23" t="n">
-        <v>5.20879420710484</v>
+        <v>5.164205346110497</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.823495763181711</v>
+        <v>-2.798481086466242</v>
       </c>
       <c r="G23" t="n">
-        <v>1.570339856394754</v>
+        <v>1.556758142764929</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.7416141065506</v>
       </c>
       <c r="E24" t="n">
-        <v>5.3400759732508</v>
+        <v>5.294854014593992</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.974493520163889</v>
+        <v>-2.946946147838224</v>
       </c>
       <c r="G24" t="n">
-        <v>1.659003415252943</v>
+        <v>1.649378257053182</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.837406230806359</v>
       </c>
       <c r="E25" t="n">
-        <v>5.551309801228954</v>
+        <v>5.510102340466502</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.143860868088365</v>
+        <v>-3.117787064117724</v>
       </c>
       <c r="G25" t="n">
-        <v>1.715956588206323</v>
+        <v>1.705200637071871</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.912639167726389</v>
       </c>
       <c r="E26" t="n">
-        <v>5.612486064948138</v>
+        <v>5.571009019246563</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.28746394678565</v>
+        <v>-3.263219599884915</v>
       </c>
       <c r="G26" t="n">
-        <v>1.723667815322449</v>
+        <v>1.715347277450252</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.968449539302301</v>
       </c>
       <c r="E27" t="n">
-        <v>5.74866061476297</v>
+        <v>5.709043827125477</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.243357838006953</v>
+        <v>-3.216591469107864</v>
       </c>
       <c r="G27" t="n">
-        <v>1.730412928086605</v>
+        <v>1.720329719458607</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.003171464357815</v>
       </c>
       <c r="E28" t="n">
-        <v>5.747933589316286</v>
+        <v>5.707684923857682</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.23063641749168</v>
+        <v>-3.204644037931385</v>
       </c>
       <c r="G28" t="n">
-        <v>1.735278265325025</v>
+        <v>1.73079656819228</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.01552736907469</v>
       </c>
       <c r="E29" t="n">
-        <v>5.752459200737757</v>
+        <v>5.713271797256694</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.374828374602365</v>
+        <v>-3.355001988123655</v>
       </c>
       <c r="G29" t="n">
-        <v>1.752969014554102</v>
+        <v>1.748526962265346</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.005457008024828</v>
       </c>
       <c r="E30" t="n">
-        <v>5.708624201699874</v>
+        <v>5.672507138905561</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.302094114058806</v>
+        <v>-3.279153167644281</v>
       </c>
       <c r="G30" t="n">
-        <v>1.719064743975031</v>
+        <v>1.714440935324604</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.972673544095294</v>
       </c>
       <c r="E31" t="n">
-        <v>5.638605308009197</v>
+        <v>5.605307298582813</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.257030124857275</v>
+        <v>-3.233829962155133</v>
       </c>
       <c r="G31" t="n">
-        <v>1.612662862074979</v>
+        <v>1.606872275169933</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.918626969493228</v>
       </c>
       <c r="E32" t="n">
-        <v>5.428681589644697</v>
+        <v>5.3950298262258</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.239605910963937</v>
+        <v>-3.219277559768263</v>
       </c>
       <c r="G32" t="n">
-        <v>1.52264527931441</v>
+        <v>1.518663717136598</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.845113059363432</v>
       </c>
       <c r="E33" t="n">
-        <v>5.237534889234563</v>
+        <v>5.205026117163891</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.27794735446635</v>
+        <v>-3.260216655432946</v>
       </c>
       <c r="G33" t="n">
-        <v>1.425598970674996</v>
+        <v>1.421299029903922</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.753974101092739</v>
       </c>
       <c r="E34" t="n">
-        <v>5.015832382760704</v>
+        <v>4.988603084067964</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.106316590910462</v>
+        <v>-3.082877949223711</v>
       </c>
       <c r="G34" t="n">
-        <v>1.320385824173926</v>
+        <v>1.314271369389526</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.648605703403108</v>
       </c>
       <c r="E35" t="n">
-        <v>4.773914665376708</v>
+        <v>4.745602147562063</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.059884854591324</v>
+        <v>-3.038819719218138</v>
       </c>
       <c r="G35" t="n">
-        <v>1.290330762985812</v>
+        <v>1.284653011405964</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.532361899616347</v>
       </c>
       <c r="E36" t="n">
-        <v>4.560100872935909</v>
+        <v>4.533802313195886</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.013899275247228</v>
+        <v>-2.993552626431251</v>
       </c>
       <c r="G36" t="n">
-        <v>1.25124826586115</v>
+        <v>1.245758979770417</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.409036668824302</v>
       </c>
       <c r="E37" t="n">
-        <v>4.208814619480157</v>
+        <v>4.182746609755945</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.039377796637362</v>
+        <v>-3.020147607620173</v>
       </c>
       <c r="G37" t="n">
-        <v>1.19402489804797</v>
+        <v>1.188741155225302</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.283846673662335</v>
       </c>
       <c r="E38" t="n">
-        <v>3.940073810574135</v>
+        <v>3.915536701748561</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.992513321598072</v>
+        <v>-2.972678701190225</v>
       </c>
       <c r="G38" t="n">
-        <v>1.147977716715522</v>
+        <v>1.141197838472791</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.160380122826814</v>
       </c>
       <c r="E39" t="n">
-        <v>3.655010304516981</v>
+        <v>3.634485253903056</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.020097289164341</v>
+        <v>-3.000089756244636</v>
       </c>
       <c r="G39" t="n">
-        <v>1.038969643763725</v>
+        <v>1.031404187689342</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.041884004387506</v>
       </c>
       <c r="E40" t="n">
-        <v>3.404275573829915</v>
+        <v>3.385130163786794</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.050816249009095</v>
+        <v>-3.033327993444698</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9236385231560816</v>
+        <v>0.9161127119256873</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.9323189312170262</v>
       </c>
       <c r="E41" t="n">
-        <v>3.090089575299395</v>
+        <v>3.070156147741915</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.932648387333896</v>
+        <v>-2.91364264912575</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9066217362748108</v>
+        <v>0.9009970477938403</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.8327848384720178</v>
       </c>
       <c r="E42" t="n">
-        <v>2.738256832917278</v>
+        <v>2.717953793429689</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.981865936344081</v>
+        <v>-2.965275484015857</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8787001776139615</v>
+        <v>0.8735292701164914</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.7432202114521617</v>
       </c>
       <c r="E43" t="n">
-        <v>2.526286220761611</v>
+        <v>2.511399276883545</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.837087845463041</v>
+        <v>-2.816384698011505</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7987706828468052</v>
+        <v>0.7937894606798038</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.663606256812668</v>
       </c>
       <c r="E44" t="n">
-        <v>2.16490943962974</v>
+        <v>2.145777447841507</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.756684442330052</v>
+        <v>-2.736229532593952</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8179453690824107</v>
+        <v>0.8181716496534842</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5915283454820225</v>
       </c>
       <c r="E45" t="n">
-        <v>1.986960202823081</v>
+        <v>1.973217470134593</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.773892744303821</v>
+        <v>-2.758065912662886</v>
       </c>
       <c r="G45" t="n">
-        <v>0.734150806986702</v>
+        <v>0.7335713823437913</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.5249845802242949</v>
       </c>
       <c r="E46" t="n">
-        <v>1.716057835038663</v>
+        <v>1.70459498583986</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.735378083329212</v>
+        <v>-2.717749546009162</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6590226077869065</v>
+        <v>0.6591256843812768</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4633049529122913</v>
       </c>
       <c r="E47" t="n">
-        <v>1.515803799083327</v>
+        <v>1.506101180957619</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.661011065133998</v>
+        <v>-2.64256645394846</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5491197812023204</v>
+        <v>0.5489337553959123</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.4043383509963119</v>
       </c>
       <c r="E48" t="n">
-        <v>1.349755944442052</v>
+        <v>1.343553661080201</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.655115571872551</v>
+        <v>-2.637355901607001</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4967465026106414</v>
+        <v>0.4972765236787355</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3472348867202099</v>
       </c>
       <c r="E49" t="n">
-        <v>1.180571877680938</v>
+        <v>1.177965686629194</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.619782867068536</v>
+        <v>-2.603491885792595</v>
       </c>
       <c r="G49" t="n">
-        <v>0.420644870010756</v>
+        <v>0.4231229777203833</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2916537807547724</v>
       </c>
       <c r="E50" t="n">
-        <v>1.045916640271886</v>
+        <v>1.04692666891258</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.598933338654581</v>
+        <v>-2.582315439895903</v>
       </c>
       <c r="G50" t="n">
-        <v>0.351538417652494</v>
+        <v>0.3516116081337038</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2366150600810963</v>
       </c>
       <c r="E51" t="n">
-        <v>0.7862734081802375</v>
+        <v>0.7839429012743832</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.504515178211274</v>
+        <v>-2.486138878141532</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2638903767210911</v>
+        <v>0.2651230264087989</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1819776088452751</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6383286091455216</v>
+        <v>0.6392928937354603</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.475465266298441</v>
+        <v>-2.457973351209983</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2092372146397279</v>
+        <v>0.2085467844336491</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1281332377054102</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4410601349028669</v>
+        <v>0.4406142828881641</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.460531358528264</v>
+        <v>-2.442835729933773</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1975578436006793</v>
+        <v>0.1985105396977598</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.07506975136029594</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2744633516525187</v>
+        <v>0.2733258495903835</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.412017048058371</v>
+        <v>-2.39592307116102</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1160882991247342</v>
+        <v>0.1166061217792933</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.02343594959247204</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2217637654987795</v>
+        <v>0.2225639814266729</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.36815155298665</v>
+        <v>-2.353254850377756</v>
       </c>
       <c r="G55" t="n">
-        <v>0.07278820052035934</v>
+        <v>0.07236552549137293</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.0265548119066071</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1267875276362486</v>
+        <v>0.1278622078686787</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.390489897772548</v>
+        <v>-2.374286745074059</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01203705151286902</v>
+        <v>0.01107520660563733</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.07510902511633878</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.05079331708165542</v>
+        <v>-0.0483640030261679</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.382269386891338</v>
+        <v>-2.368215594657709</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02936123841522086</v>
+        <v>0.03140874212706409</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1220320475985689</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.2027385858351619</v>
+        <v>-0.2006471678345928</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.314295557229797</v>
+        <v>-2.298069227545591</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.03744215346764043</v>
+        <v>-0.03724819869243455</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1664412063258861</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2936228658773899</v>
+        <v>-0.2913618899286849</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.384169289799408</v>
+        <v>-2.374250149833454</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.07040592636316598</v>
+        <v>-0.06885977744760964</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2088526749245787</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4815705323379808</v>
+        <v>-0.4851715040135013</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.442595421187134</v>
+        <v>-2.431411305737605</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.08089778184458607</v>
+        <v>-0.07903447417712074</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2485148678231283</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5897058088013509</v>
+        <v>-0.5922522276267741</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.418301060790906</v>
+        <v>-2.407155980264688</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1161335092609981</v>
+        <v>-0.1126045082253339</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2858169119730649</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6068482393420319</v>
+        <v>-0.6070970869781451</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.396042615613662</v>
+        <v>-2.384554759667112</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1628223271453852</v>
+        <v>-0.1617317889753597</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3212502626007738</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.803861156821129</v>
+        <v>-0.8057311736160386</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.484316435159409</v>
+        <v>-2.474076476917485</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.182434326506219</v>
+        <v>-0.1777666035670661</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3553695686227379</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.913096120264676</v>
+        <v>-0.9140549155685239</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.458363700443102</v>
+        <v>-2.451153828123263</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1988527812036</v>
+        <v>-0.196245370310502</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3884763441193056</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.071904216472952</v>
+        <v>-1.072934982416656</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.453499583046036</v>
+        <v>-2.447177755231543</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2074947472724432</v>
+        <v>-0.2037980180506732</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4208523123861743</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.227334571973396</v>
+        <v>-1.227432159281676</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.481983488570847</v>
+        <v>-2.478448388328415</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2754039253422487</v>
+        <v>-0.2730020577172149</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4517198649271969</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.373733222092556</v>
+        <v>-1.373150747846262</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.380518914549071</v>
+        <v>-2.375302263000844</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2724708168077673</v>
+        <v>-0.2685935510656799</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4807541159493288</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.491785198839173</v>
+        <v>-1.491475359135385</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.428591032528322</v>
+        <v>-2.421799565792733</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3177568171356339</v>
+        <v>-0.3127109433768972</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5073742501351448</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.622260039929794</v>
+        <v>-1.619279357582526</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.455886202654151</v>
+        <v>-2.450673820550663</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3069984263184749</v>
+        <v>-0.3040262828606816</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5307368986280265</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.765577980710699</v>
+        <v>-1.760154566053056</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.394993552049655</v>
+        <v>-2.386432095510143</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3163344821174574</v>
+        <v>-0.3088922300197776</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5503490240561565</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.839567458007006</v>
+        <v>-1.832235601551818</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.399264826548922</v>
+        <v>-2.393644407512689</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.3700416572291844</v>
+        <v>-0.3659984930630215</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.5654856699537181</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.89587289520168</v>
+        <v>-1.888827701464563</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.425446281519009</v>
+        <v>-2.420714516908798</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4334593794354172</v>
+        <v>-0.4308995423551056</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5753165404893863</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.92285273633763</v>
+        <v>-1.914085126609377</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.360489119524664</v>
+        <v>-2.353202397199555</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4698899414575787</v>
+        <v>-0.4666012491685532</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5792156625133063</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.935704984838065</v>
+        <v>-1.92375297925651</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.424150810001596</v>
+        <v>-2.417295911515625</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.44976682856963</v>
+        <v>-0.4473186069731633</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.5763109021539468</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.899804443883998</v>
+        <v>-1.886694808857975</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.332419350139365</v>
+        <v>-2.324910006767243</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.488721242352175</v>
+        <v>-0.4866597104647666</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5655693811210663</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.792104650783826</v>
+        <v>-1.775279378995054</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.278740231378769</v>
+        <v>-2.276054750639047</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4449313774443714</v>
+        <v>-0.4416579331722646</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5460127049125548</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.643127256043375</v>
+        <v>-1.627338239484398</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.166163512547319</v>
+        <v>-2.161601915805921</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4678229202840796</v>
+        <v>-0.4650422919187852</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5167663527624052</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.541282701439985</v>
+        <v>-1.527855297741376</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.129692085839816</v>
+        <v>-2.128311225427658</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4357764680863831</v>
+        <v>-0.433137951238771</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4780020355454287</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.364786905606016</v>
+        <v>-1.349482166064377</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.064016437288261</v>
+        <v>-2.060549038240949</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.417189135462486</v>
+        <v>-0.4160010099841808</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4301884852003013</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.215148966772647</v>
+        <v>-1.202696216315482</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.018049765485144</v>
+        <v>-2.018333378599832</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3852671070828462</v>
+        <v>-0.3828072969935212</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3740956661755941</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.9041089390927933</v>
+        <v>-0.8916848549074354</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.91737625858111</v>
+        <v>-1.917484824461571</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3428379752048675</v>
+        <v>-0.3393663067128176</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3115064651211157</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.6781193001820727</v>
+        <v>-0.6682623721251473</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.960118889686937</v>
+        <v>-1.964218776476037</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2994896928670295</v>
+        <v>-0.2975147697157193</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2447149005777138</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.4026815622453567</v>
+        <v>-0.3951337938705995</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.899047532324154</v>
+        <v>-1.902597880583504</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2840465013317687</v>
+        <v>-0.2815104511578503</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1754961484069085</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.1552855373428094</v>
+        <v>-0.1495778996498011</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.746091625009276</v>
+        <v>-1.748676468837334</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2780503711586585</v>
+        <v>-0.2746762899748883</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1065056820378934</v>
       </c>
       <c r="E85" t="n">
-        <v>0.1403137384844903</v>
+        <v>0.145526730508656</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.626702702139227</v>
+        <v>-1.628871580065743</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2288078154007273</v>
+        <v>-0.2269213307475456</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.04042126920555105</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3532272880064094</v>
+        <v>0.3584396701098983</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.477137343866392</v>
+        <v>-1.477112947039322</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2348454201798564</v>
+        <v>-0.2324270846965503</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.01972870578855536</v>
       </c>
       <c r="E87" t="n">
-        <v>0.596979036865387</v>
+        <v>0.6021725114278967</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.400249523514178</v>
+        <v>-1.403177752683245</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1530550574279418</v>
+        <v>-0.1512381037319094</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.0702581598429928</v>
       </c>
       <c r="E88" t="n">
-        <v>0.7906745957836515</v>
+        <v>0.7932752975493053</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.278363585393523</v>
+        <v>-1.282023109454011</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.07815862808531053</v>
+        <v>-0.07449849410414544</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1074130418135606</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8850829974961298</v>
+        <v>0.8825676846252209</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.051810379777487</v>
+        <v>-1.051589588492504</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.0728596372457234</v>
+        <v>-0.07204722290429499</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1282860401339252</v>
       </c>
       <c r="E90" t="n">
-        <v>1.008793818281615</v>
+        <v>1.001921232096018</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9927377324724072</v>
+        <v>-0.9972127204777077</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.04032341874459826</v>
+        <v>-0.03779956698421479</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1302245449317452</v>
       </c>
       <c r="E91" t="n">
-        <v>1.046370421255386</v>
+        <v>1.041514232827118</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7058731306568163</v>
+        <v>-0.7094076209785714</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.05075916152375753</v>
+        <v>-0.04981927376088877</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1125804442160636</v>
       </c>
       <c r="E92" t="n">
-        <v>1.056505473140909</v>
+        <v>1.048136751535249</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4485329590405687</v>
+        <v>-0.4521937029424106</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.08538862778748202</v>
+        <v>-0.085313607544242</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.07753282301891797</v>
       </c>
       <c r="E93" t="n">
-        <v>1.16946644199871</v>
+        <v>1.160519515591492</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2550295251354799</v>
+        <v>-0.258360301951201</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.06627493361955138</v>
+        <v>-0.06495079583033134</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.03011469663228807</v>
       </c>
       <c r="E94" t="n">
-        <v>1.220466179226352</v>
+        <v>1.21462801850852</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.03088611611327556</v>
+        <v>-0.03420469451546174</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1099623318536613</v>
+        <v>-0.112415432815542</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.02225076400164017</v>
       </c>
       <c r="E95" t="n">
-        <v>1.219520802177392</v>
+        <v>1.212492076298548</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1179351389339273</v>
+        <v>0.1142530478083993</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.08073981238930832</v>
+        <v>-0.08216336724883828</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.07082907677408912</v>
       </c>
       <c r="E96" t="n">
-        <v>1.177641208829164</v>
+        <v>1.175945019427127</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2033301328854229</v>
+        <v>0.1996895163659138</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.151258231114242</v>
+        <v>-0.1523896339696097</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1076592589010148</v>
       </c>
       <c r="E97" t="n">
-        <v>1.131564141383555</v>
+        <v>1.131238443742172</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2925810453553198</v>
+        <v>0.2899358193802634</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1665361341461041</v>
+        <v>-0.1672674290375251</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1282508416567145</v>
       </c>
       <c r="E98" t="n">
-        <v>1.061663572304167</v>
+        <v>1.06705893061068</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3042677354424893</v>
+        <v>0.3019140515509185</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1936861431508672</v>
+        <v>-0.1928584807925201</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1315796441925521</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9839377209421016</v>
+        <v>0.9861297758543341</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3364867951917054</v>
+        <v>0.3326497842142834</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1989491486705262</v>
+        <v>-0.1975420616692684</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1236115105261508</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8841778752118358</v>
+        <v>0.8857764773055924</v>
       </c>
       <c r="F100" t="n">
-        <v>0.363633144672408</v>
+        <v>0.3628054823140609</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1690508370963364</v>
+        <v>-0.1665300349393367</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1127795162284345</v>
       </c>
       <c r="E101" t="n">
-        <v>0.928467265153896</v>
+        <v>0.930800821663134</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3664772047880842</v>
+        <v>0.3662704416786666</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.235282123384408</v>
+        <v>-0.2339726236914299</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1105948752143252</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9275889793793788</v>
+        <v>0.9321859515200289</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3351760756573738</v>
+        <v>0.3357475713314868</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2118648289213431</v>
+        <v>-0.208829253713168</v>
       </c>
     </row>
   </sheetData>
